--- a/vary_flux/results/analyze_rxns_90.xlsx
+++ b/vary_flux/results/analyze_rxns_90.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t xml:space="preserve">Group 1: Biomass coupling</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">ENO_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">ALCD25xi_c</t>
+    <t xml:space="preserve">ALCD2i2_c</t>
   </si>
   <si>
     <t xml:space="preserve">HCO3E_c_FWD</t>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">GAPD_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">ALCD25xi_m</t>
-  </si>
-  <si>
     <t xml:space="preserve">HCO3E_n_REV</t>
   </si>
   <si>
@@ -70,334 +67,277 @@
     <t xml:space="preserve">PGI_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">ALCD25yi_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACGAM6PS_c</t>
   </si>
   <si>
     <t xml:space="preserve">PGK_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">ALCD2i2_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACGAMPM_c</t>
   </si>
   <si>
     <t xml:space="preserve">PGM_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">FECOOR_m</t>
-  </si>
-  <si>
     <t xml:space="preserve">AFAT_c</t>
   </si>
   <si>
     <t xml:space="preserve">TPI_c_FWD</t>
   </si>
   <si>
-    <t xml:space="preserve">FECRq6_m</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALAS_m</t>
   </si>
   <si>
-    <t xml:space="preserve">OHACT5_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALATRS_c</t>
   </si>
   <si>
-    <t xml:space="preserve">PPND2_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARGTRS_c</t>
   </si>
   <si>
-    <t xml:space="preserve">PPNDH_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASNTRS_c</t>
   </si>
   <si>
-    <t xml:space="preserve">PPYRDC_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASPTRS_c</t>
   </si>
   <si>
+    <t xml:space="preserve">CERH124B_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH126B_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH2A24_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH2A26_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH324_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH326_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHTNS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPPPGO_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYSTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHFS_1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHNPA2i_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLPMMT_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLPMT_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCLT_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLNTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLYTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPCI_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMEOS_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMOX_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILETRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCS_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYSTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN1PT_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADS2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNATi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHETRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNTK_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPBNGD_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPBNGS_1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPCDC_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPNCL2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPPGO_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNDR1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNDR2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPT_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYRTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAGDP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPP3S_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPPDC1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALTRS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3HAO_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMMPS4_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB4PS_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHPPDA2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAPPRy_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPCII2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKYNH_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYN3OX_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNDPR_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMDPHT_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUILSYN_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBFSa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBFSb_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THZPSN1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THZPSN2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMDPK_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMPK_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADK1_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADK3_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKP1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH124A_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH126A_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCRD124_r_FWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCRD126_r_FWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHPTS_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNMPPA_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNTPPA_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLD3_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPPK2_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADHK1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADK_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSPHS_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH124B_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYDAMK_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH126B_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMDK1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH2A24_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYRTA_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH2A26_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHETA1_c_REV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH324_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH326_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHTNS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPPPGO_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYSTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHFS_1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHNPA2i_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLPMMT_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLPMT_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCLT_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLNTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLUTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLYTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPCI_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEMEOS_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOMOX_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILETRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPCS_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYSTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN1PT_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADS2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNATi_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHETRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNTK_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPBNGD_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPBNGS_1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCDC_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPNCL2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPPGO_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNDR1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNDR2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERPT_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THRTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYRTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAGDP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPP3S_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPPDC1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALTRS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3HAO_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHMMPS4_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB4PS_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHPPDA2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRAPPRy_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPCII2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HKYNH_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYN3OX_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNDPR_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMDPHT_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUILSYN_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBFSa_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBFSb_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THZPSN1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THZPSN2_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMDPK_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMPK_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADK1_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADK3_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKP1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH124A_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERH126A_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHCRD124_r_FWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHCRD126_r_FWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHORM_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHPTS_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMPPA_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNTPPA_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURIK1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOLD3_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPPK2_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYPOE_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADHK1_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADK_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDPK5_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTD1pp_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTD5_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP4_c</t>
   </si>
 </sst>
 </file>
@@ -593,8 +533,8 @@
   </sheetPr>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17:K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.01483737952654</v>
+        <v>0.998998699554547</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.976975132881764</v>
+        <v>0.96909568624333</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>9</v>
@@ -689,230 +629,159 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.01499161656774</v>
-      </c>
-      <c r="G4" s="0" t="s">
+        <v>1.01506542409752</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.978747041904094</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" s="3" t="n">
-        <v>0.999976293476993</v>
+        <v>0.999575218571754</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="n">
-        <v>1.01810102958547</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.978739547811855</v>
-      </c>
+        <v>1.01836177189578</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.01499161656774</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.981749082574135</v>
+        <v>1.01506542409752</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.01483737952654</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.994135759270316</v>
-      </c>
+        <v>0.998998699554548</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.01764336192063</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.994135759270316</v>
-      </c>
+        <v>1.01783698563253</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.970625385756807</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.991491349890969</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.975820200898275</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0.979274413611108</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0.961120956538562</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0.991491349890974</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0.974878730704576</v>
-      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -920,7 +789,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -928,7 +797,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -936,7 +805,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -944,7 +813,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -952,7 +821,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -960,7 +829,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -968,7 +837,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -976,7 +845,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -984,7 +853,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -993,7 +862,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -1001,7 +870,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -1009,7 +878,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -1017,7 +886,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -1025,7 +894,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -1034,7 +903,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -1042,7 +911,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -1050,7 +919,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -1058,7 +927,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -1066,7 +935,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -1074,7 +943,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -1082,7 +951,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -1090,7 +959,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -1098,7 +967,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -1106,7 +975,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -1114,7 +983,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -1122,7 +991,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -1130,7 +999,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
@@ -1138,7 +1007,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -1146,7 +1015,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -1154,7 +1023,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
@@ -1162,7 +1031,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
@@ -1170,7 +1039,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -1178,7 +1047,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -1186,7 +1055,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -1194,7 +1063,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -1202,7 +1071,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -1210,7 +1079,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1</v>
@@ -1218,7 +1087,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
@@ -1226,7 +1095,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
@@ -1234,7 +1103,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -1242,7 +1111,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -1250,7 +1119,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
@@ -1258,7 +1127,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
@@ -1266,151 +1135,151 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B62" s="5" t="n">
-        <v>1.18809824941514</v>
+        <v>1.18757321336267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B63" s="5" t="n">
-        <v>875.188857412653</v>
+        <v>873.677998111426</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>3.40393059490085</v>
+        <v>2.13707507082153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>3.40394239848914</v>
+        <v>2.13706326723324</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>3.40394239848914</v>
+        <v>2.13706326723324</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>3.40394239848914</v>
+        <v>2.13706326723324</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>1.18809824942827</v>
+        <v>1.18757321337579</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>1.18809824941514</v>
+        <v>1.18757321336266</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>1.18809824942089</v>
+        <v>1.18757321336841</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>3.40394239848914</v>
+        <v>2.13706326723324</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>1.18809824942463</v>
+        <v>1.18757321337215</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>3.40393059490085</v>
+        <v>2.13707507082153</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>3.40394239848914</v>
+        <v>2.13706326723324</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>875.188857412653</v>
+        <v>873.677998111426</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>875.118035882908</v>
+        <v>873.677998111426</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>875.165250236072</v>
+        <v>873.654390934844</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>875.188857412653</v>
+        <v>873.677998111426</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="5" t="n">
-        <v>910.505193578848</v>
+      <c r="A79" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.993375001873263</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>0.993375001873263</v>
@@ -1418,23 +1287,23 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.993375001873263</v>
+        <v>0.993375001873521</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.993375001873521</v>
+        <v>0.961120956538562</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>0.961120956538562</v>
@@ -1442,15 +1311,15 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.961120956538562</v>
+        <v>0.961120956538563</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>0.961120956538563</v>
@@ -1458,39 +1327,39 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.961120956538563</v>
+        <v>0.993375001872488</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>0.989287341448347</v>
+        <v>0.993375001873263</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.993375001872488</v>
+        <v>0.993375001873521</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.993375001873263</v>
+        <v>0.993375001872488</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>0.993375001873521</v>
@@ -1498,107 +1367,45 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>0.978574328569647</v>
+        <v>0.993299027104692</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>0.993375001872488</v>
+        <v>0.9932990271238</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>0.993375001873521</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>0.993299027104692</v>
+        <v>0.961120956538562</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>0.9932990271238</v>
-      </c>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>0.978415156357385</v>
-      </c>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>0.978415189934589</v>
-      </c>
+      <c r="B99" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>0.961120956538562</v>
-      </c>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>0.978574292058386</v>
-      </c>
+      <c r="B102" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2"/>
